--- a/src/analysis/python/data/bluebook_missingalternatives.xlsx
+++ b/src/analysis/python/data/bluebook_missingalternatives.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD76CE33-3551-C84C-9B9B-250BA00B7ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F89871-8BA1-6241-975E-57983D20117E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="17560" windowWidth="28020" windowHeight="33440" xr2:uid="{9716385D-8641-8C45-A762-0D006627BD89}"/>
+    <workbookView xWindow="29100" yWindow="7540" windowWidth="28020" windowHeight="28340" xr2:uid="{9716385D-8641-8C45-A762-0D006627BD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
   <si>
     <t>The Committee could select a 50 basis point reduction in the funds rate at this meeting if it thought an easing of at least this size would prove necessary to promote a return of economic growth to an acceptable pace over time. The resulting 5 percent federal funds rate would imply a real rate of around 3 percent–assuming that inflation expectatio ns are in line with the staff forecast of core PCE p rices. Even if this places the real rate below its long-run equilibrium value, an undershoot may well be needed for a time to counter the effects of the declines in equity wealth, the apparent downward revision to expected near-term returns on capital, a possible
 7
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">If the Committee perceived substantial remaining downside risks to the economic outlook, it instead might select a 25 basis point reduction in the federal funds rate target to 11⁄2 percent. While some recent indicators of capital spending have been encouraging, a sustained revival may be viewed as far from assured. If investors in stock and corporate bond markets came to question the long-term outlook for high-tech industries and the associated trends for economy-wide profit streams and productivity, the resulting downward adjustment in asset prices would set back the recovery of investment and consumption. Moreover, should the news on the labor market remain bad for a while longer, consumer attitudes may turn out to be morefragilethantheyhaveseemedoflate. Whileeasingpolicyanothernotchwould not appreciably reduce the risks of such adverse outcomes, it would at least put the economy on a slightly stronger footing should any of them eventuate. With an intensification of inflation unlikely to pose a threat in the next couple of years, the potential costs of such a policy action might be seen as small when compared with the cumulative shortfall of resource utilization in the staff forecast. Indeed, limiting disinflation at this point might be welcomed for strategic reasons: The risks associated with operating policy at very low nominal interest rates might incline the Committee toward slightly higher inflation than in the Greenbook forecast–as in the “inflation cushion” strategy described above–in order to be able to put in place low real interest rates if need be in the future. Another 1⁄4 percentage point reduction in the federal funds rate, along with a statement that the risks were weighted to the downside, would come as a surprise to market participants, perhaps prompting a sense that the economic outlook was a little weaker than previously perceived. As a result, some immediate reduction in long-term as well as short-term interest rates likely would occur. </t>
-  </si>
-  <si>
-    <t>If the Committee reads the strength of recent economic indicators as signaling that lasting economic growth above potential is a distinct likelihood, it might wish to hold the funds rate unchanged and move the balance of risks toward heightened inflation pressures. With the economy seeming to have regained its footing, the Committee might view a balance toward inflation as especially appropriate in light of the un sustainably low level of the real fund s rate, the recent up tick in measures of inflation expectations based on Treasury inflation-indexed securities, and the possibility that sharp increases in oil prices could feed through to prices and wages more generally. Indeed, the surprising resilience exhibited by the economy of late raises the possibility that spending may snap back more rapidly than in the Greenbook. If the Committee were especially concerned that, if it did not move promptly to begin to restore the funds rate to more sustainable levels, inflation pressures could build over time to the point that they would be difficult to contain, it might even choose to implement a quarter-point increase in the target funds rate along with a balance of risks weighted toward inflation pressures. In particular, the apparent turnaround of demand in the high-tech sector, favorable news on productivity, accelerator effects stemming from the recent pickup in output growth, and the business tax incentives included in the fiscal stimulus package might be imparting an even more sizable impetus to investment spending than in the staff forecast. Forces such as these help to explain why some measures of the equilibrium real funds rate have been boosted as much as a half a percentage point over the intermeeting period (Chart 4). Such an increase in estimates of the equilibrium real funds rate im plies that just ma intaining the sam e degree of po licy stimulus w ould require increasing the nominal funds rate target. Market participants do not expect a move to a balance of risks toward inflation pressures at this meeting, much less one accompanied by a quarter-point increase in the target funds rate. As a result, either choice would push interest rates higher across the term structure while equities could come under heavy selling pressure. The extent of the market reaction could be sizable and, of course , would depend importantly on the wording of the annou ncement and the associated m arket perceptionsaboutthefuturecourseofpolicy. In particular, the reaction in markets could be attenuated if the wording of the announcement emphasized that the Committee viewed itself as merely unwinding some of the insurance it had taken out late last year at a time of unusual uncertainty, and that it intended to wait thereafter, rather than embark on a path that would promptly realign the real interest rate to a more normal level.</t>
   </si>
   <si>
     <t>alt4</t>
@@ -340,6 +337,12 @@
   </si>
   <si>
     <t>change</t>
+  </si>
+  <si>
+    <t>If the Committee reads the strength of recent economic indicators as signaling that lasting economic growth above potential is a distinct likelihood, it might wish to hold the funds rate unchanged and move the balance of risks toward heightened inflation pressures. With the economy seeming to have regained its footing, the Committee might view a balance toward inflation as especially appropriate in light of the un sustainably low level of the real fund s rate, the recent up tick in measures of inflation expectations based on Treasury inflation-indexed securities, and the possibility that sharp increases in oil prices could feed through to prices and wages more generally. Indeed, the surprising resilience exhibited by the economy of late raises the possibility that spending may snap back more rapidly than in the Greenbook. If the Committee were especially concerned that, if it did not move promptly to begin to restore the funds rate to more sustainable levels, inflation pressures could build over time to the point that they would be difficult to contain, it might even choose to implement a quarter-point increase in the target funds rate along with a balance of risks weighted toward inflation pressures. In particular, the apparent turnaround of demand in the high-tech sector, favorable news on productivity, accelerator effects stemming from the recent pickup in output growth, and the business tax incentives included in the fiscal stimulus package might be imparting an even more sizable impetus to investment spending than in the staff forecast. Forces such as these help to explain why some measures of the equilibrium real funds rate have been boosted as much as a half a percentage point over the intermeeting period (Chart 4). Such an increase in estimates of the equilibrium real funds rate im plies that just ma intaining the same degree of policy stimulus would require increasing the nominal funds rate target. Market participants do not expect a move to a balance of risks toward inflation pressures at this meeting, much less one accompanied by a quarter-point increase in the target funds rate. As a result, either choice would push interest rates higher across the term structure while equities could come under heavy selling pressure. The extent of the market reaction could be sizable and, of course , would depend importantly on the wording of the announcement and the associated market perceptions about the future course of policy. In particular, the reaction in markets could be attenuated if the wording of the announcement emphasized that the Committee viewed itself as merely unwinding some of the insurance it had taken out late last year at a time of unusual uncertainty, and that it intended to wait thereafter, rather than embark on a path that would promptly realign the real interest rate to a more normal level.</t>
+  </si>
+  <si>
+    <t>If as in the Greenbook ,  the Committee sees inflation pressures as likely to remain muted and expects output to grow only somewhat faster than potential supply, then it might well choose to indicate that risks to the outlook are balanced over the “foreseeable future.” In an environment of heightened uncertainty, in particular, the Committee may view the horizon at which the foreseeable future ends to be shorter than the date at which the Greenbook assumes tightening begins. Even if the Committee is fairly certain its next action will be to tighten, such a statement could still be appropriate if the odds on some disappointment on economic performance in the near term roughly balance the possibility that inflation may ultimately pick up. An unchanged target federal funds rate, along with a statement indicating that the risks to the outlook are balanced, would match investors’ expectations, and so would likely have little effect on financial markets.</t>
   </si>
 </sst>
 </file>
@@ -751,32 +754,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C35FE6-3980-E94D-9EE2-3C2A0EB4F129}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.6">
@@ -790,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
@@ -804,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3">
         <v>-0.75</v>
@@ -821,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>-0.25</v>
@@ -838,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>-0.5</v>
@@ -858,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>-0.25</v>
@@ -875,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>-0.75</v>
@@ -889,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>-0.25</v>
@@ -926,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>-0.5</v>
@@ -940,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -960,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>-0.25</v>
@@ -977,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>-0.5</v>
@@ -994,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>-0.5</v>
@@ -1008,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>-0.25</v>
@@ -1028,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1045,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>-0.25</v>
@@ -1062,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>-0.5</v>
@@ -1079,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1096,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.25</v>
@@ -1110,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-0.5</v>
@@ -1130,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1147,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>-0.25</v>
@@ -1161,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1178,10 +1182,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>-0.25</v>
@@ -1195,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1209,13 +1213,13 @@
         <v>37334</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1229,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1246,47 +1250,47 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="409.6">
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>37383</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="409.6">
+      <c r="A31" s="2">
+        <v>37383</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30">
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>37432</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1294,50 +1298,50 @@
         <v>37432</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E32">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>37432</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>37432</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33">
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="409.6">
-      <c r="A34" s="2">
-        <v>37481</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="409.6">
@@ -1345,13 +1349,13 @@
         <v>37481</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1361,34 +1365,34 @@
       <c r="A36" s="2">
         <v>37481</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.6">
+      <c r="A37" s="2">
+        <v>37481</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="409.6">
-      <c r="A37" s="6">
-        <v>37523</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="409.6">
@@ -1396,13 +1400,13 @@
         <v>37523</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1412,34 +1416,34 @@
       <c r="A39" s="6">
         <v>37523</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>4</v>
+      <c r="B39" t="s">
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="409.6">
       <c r="A40" s="6">
-        <v>37566</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
+        <v>37523</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="409.6">
@@ -1447,50 +1451,50 @@
         <v>37566</v>
       </c>
       <c r="B41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="409.6">
       <c r="A42" s="6">
         <v>37566</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="409.6">
+      <c r="A43" s="6">
+        <v>37566</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42">
+      <c r="C43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="409.6">
-      <c r="A43" s="2">
-        <v>37600</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="409.6">
@@ -1498,33 +1502,33 @@
         <v>37600</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="409.6">
       <c r="A45" s="2">
-        <v>37649</v>
+        <v>37600</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
         <v>54</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="409.6">
@@ -1532,84 +1536,84 @@
         <v>37649</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="409.6">
       <c r="A47" s="2">
-        <v>37698</v>
+        <v>37649</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
         <v>54</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="409.6">
       <c r="A48" s="2">
         <v>37698</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E48">
-        <v>-0.25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="409.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17">
       <c r="A49" s="2">
         <v>37698</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="409.6">
+      <c r="A50" s="2">
+        <v>37698</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49">
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="409.6">
-      <c r="A50" s="6">
-        <v>37747</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="409.6">
@@ -1617,27 +1621,27 @@
         <v>37747</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E51">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="409.6">
       <c r="A52" s="6">
-        <v>37796</v>
+        <v>37747</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1651,47 +1655,47 @@
         <v>37796</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="409.6">
       <c r="A54" s="6">
         <v>37796</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>4</v>
+      <c r="B54" t="s">
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="409.6">
       <c r="A55" s="6">
-        <v>37845</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
+        <v>37796</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1702,33 +1706,33 @@
         <v>37845</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="409.6">
       <c r="A57" s="6">
-        <v>37880</v>
+        <v>37845</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
         <v>54</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="409.6">
@@ -1736,33 +1740,33 @@
         <v>37880</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="409.6">
       <c r="A59" s="6">
-        <v>37922</v>
+        <v>37880</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
         <v>54</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="409.6">
@@ -1770,33 +1774,33 @@
         <v>37922</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="409.6">
       <c r="A61" s="6">
-        <v>37964</v>
+        <v>37922</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
         <v>54</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="409.6">
@@ -1804,33 +1808,33 @@
         <v>37964</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="409.6">
       <c r="A63" s="6">
-        <v>38013</v>
+        <v>37964</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>54</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="409.6">
@@ -1838,32 +1842,49 @@
         <v>38013</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="409.6">
       <c r="A65" s="6">
         <v>38013</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="409.6">
+      <c r="A66" s="6">
+        <v>38013</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65">
+      <c r="C66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66">
         <v>0.25</v>
       </c>
     </row>

--- a/src/analysis/python/data/bluebook_missingalternatives.xlsx
+++ b/src/analysis/python/data/bluebook_missingalternatives.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F89871-8BA1-6241-975E-57983D20117E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85723310-1E72-F04B-A7F8-C3BFEA36292E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="7540" windowWidth="28020" windowHeight="28340" xr2:uid="{9716385D-8641-8C45-A762-0D006627BD89}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{9716385D-8641-8C45-A762-0D006627BD89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,29 +98,6 @@
   </si>
   <si>
     <t>alt4</t>
-  </si>
-  <si>
-    <r>
-      <t>If the Committee views aggregate demand going forward as likely to be more robust than in the staff forecast, then it might choose a 25 basis point increase in the target federal funds rate at this meeting. With the current real federal funds rate well below its likely equilibrium value, the Committee may believe that the time has come to start the process of moving back toward a more neutral stance in order to reduce the possibility of having to make very rapid adjustments later or risk having inflationpressuresmount.7 Indeed,theCommitteemightviewa25basispointrate hike as merely taking back a portion of the easing undertaken to support the economy in the aftermath of the terrorist attacks, and such a rate increase might be seen as justified since the economic fallout from the attacks has proven to be considerably smaller than had been feared. A 25 basis point move would probably be unlikely to balance the risks to the outlook on this view, and so the balance-of-risks statement would presumably point to risks weighted toward increased inflation pressures. The choice of a 25 basis point tightening move accompanied by a statement that the balance of risks is weighted toward increased inflation pressures would catch market participants off guard. Moreover, there is some evidence that market  expectations are particularly sensitive to policy moves that mark a change in thedirectionofpolicy.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>As a result , the tightening could have substantial effects on asset prices, as market participants move up the timing and perhaps increase the cumulative size of expected policy actions. Interest rates would likely rise, especially so on shorter-term instruments, equity markets sell off, and the dollar appreciate on foreign exchange markets.</t>
-    </r>
   </si>
   <si>
     <t>In contrast, if the Committee believes that aggregate demand will be stronger than in the staff forecast and that, if policy were to remain unchanged, economic slack will erode fairly soon, then the risks would seem to be weighted toward increased inflation pressures. This more immediate emergence of pressure on resources might eventuate, for example, if economic growth abroad picks up more  quickly than projected by the staff. The Committee might also opt for such a statement if it were concerned about other sources of risks to the inflation outlook, including a widespread jump in health insurance costs, a substantial pass-through of the recent increases in oil prices to prices and wages more generally, and a continuation of the recent weakness in the foreign exchange value of the dollar. While a statement that the risks are weighted toward heightened inflation pressures is consistent with market participants’ expectations for the direction of policy, in light of the perceived tone of recent statements by Federal Reserve officials, such a selection likely would lead investors to move up the timing of their anticipated tightening of policy. As a result, interest rates would rise, especially at shorter maturities, stock prices would fall, and the dollar might appreciate.</t>
@@ -343,6 +320,29 @@
   </si>
   <si>
     <t>If as in the Greenbook ,  the Committee sees inflation pressures as likely to remain muted and expects output to grow only somewhat faster than potential supply, then it might well choose to indicate that risks to the outlook are balanced over the “foreseeable future.” In an environment of heightened uncertainty, in particular, the Committee may view the horizon at which the foreseeable future ends to be shorter than the date at which the Greenbook assumes tightening begins. Even if the Committee is fairly certain its next action will be to tighten, such a statement could still be appropriate if the odds on some disappointment on economic performance in the near term roughly balance the possibility that inflation may ultimately pick up. An unchanged target federal funds rate, along with a statement indicating that the risks to the outlook are balanced, would match investors’ expectations, and so would likely have little effect on financial markets.</t>
+  </si>
+  <si>
+    <r>
+      <t>If the Committee views aggregate demand going forward as likely to be more robust than in the staff forecast, then it might choose a 25 basis point increase in the target federal funds rate at this meeting. With the current real federal funds rate well below its likely equilibrium value, the Committee may believe that the time has come to start the process of moving back toward a more neutral stance in order to reduce the possibility of having to make very rapid adjustments later or risk having inflation pressures mount. Indeed, the Committee might view a 25 basis point rate hike as merely taking back a portion of the easing undertaken to support the economy in the aftermath of the terrorist attacks, and such a rate increase might be seen as justified since the economic fallout from the attacks has proven to be considerably smaller than had been feared. A 25 basis point move would probably be unlikely to balance the risks to the outlook on this view, and so the balance-of-risks statement would presumably point to risks weighted toward increased inflation pressures. The choice of a 25 basis point tightening move accompanied by a statement that the balance of risks is weighted toward increased inflation pressures would catch market participants off guard. Moreover, there is some evidence that market  expectations are particularly sensitive to policy moves that mark a change in thedirectionofpolicy.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>As a result , the tightening could have substantial effects on asset prices, as market participants move up the timing and perhaps increase the cumulative size of expected policy actions. Interest rates would likely rise, especially so on shorter-term instruments, equity markets sell off, and the dollar appreciate on foreign exchange markets.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C35FE6-3980-E94D-9EE2-3C2A0EB4F129}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -768,19 +768,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409.6">
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
@@ -808,16 +808,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="356">
       <c r="A4" s="3">
         <v>36970</v>
       </c>
@@ -825,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>-0.25</v>
@@ -842,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>-0.5</v>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>-0.25</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>-0.75</v>
@@ -893,10 +893,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>-0.25</v>
@@ -930,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>-0.5</v>
@@ -944,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>-0.25</v>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>-0.5</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>-0.5</v>
@@ -1012,10 +1012,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>-0.25</v>
@@ -1032,13 +1032,13 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.6">
+    <row r="17" spans="1:5" ht="238">
       <c r="A17" s="6">
         <v>37201</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>-0.25</v>
@@ -1066,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>-0.5</v>
@@ -1083,7 +1083,7 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20">
         <v>-0.25</v>
@@ -1114,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21">
         <v>-0.5</v>
@@ -1134,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1151,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.6">
+    <row r="24" spans="1:5" ht="306">
       <c r="A24" s="2">
         <v>37334</v>
       </c>
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1182,16 +1182,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="409.6">
+    <row r="26" spans="1:5" ht="404">
       <c r="A26" s="2">
         <v>37334</v>
       </c>
@@ -1199,10 +1199,10 @@
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33">
         <v>-0.25</v>
@@ -1335,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0.25</v>
@@ -1352,16 +1352,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="409.6">
+    <row r="36" spans="1:5" ht="306">
       <c r="A36" s="2">
         <v>37481</v>
       </c>
@@ -1369,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.6">
+    <row r="38" spans="1:5" ht="404">
       <c r="A38" s="6">
         <v>37523</v>
       </c>
@@ -1403,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40">
         <v>-0.25</v>
@@ -1454,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <v>-0.25</v>
@@ -1488,16 +1488,16 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="409.6">
+    <row r="44" spans="1:5" ht="404">
       <c r="A44" s="2">
         <v>37600</v>
       </c>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E45">
         <v>-0.25</v>
@@ -1539,16 +1539,16 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="409.6">
+    <row r="47" spans="1:5" ht="388">
       <c r="A47" s="2">
         <v>37649</v>
       </c>
@@ -1556,10 +1556,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47">
         <v>-0.25</v>
@@ -1573,10 +1573,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1590,16 +1590,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="409.6">
+    <row r="50" spans="1:5" ht="204">
       <c r="A50" s="2">
         <v>37698</v>
       </c>
@@ -1607,10 +1607,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>-0.5</v>
@@ -1624,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1641,16 +1641,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="409.6">
+    <row r="53" spans="1:5" ht="388">
       <c r="A53" s="6">
         <v>37796</v>
       </c>
@@ -1658,16 +1658,16 @@
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="409.6">
+    <row r="54" spans="1:5" ht="372">
       <c r="A54" s="6">
         <v>37796</v>
       </c>
@@ -1675,16 +1675,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="409.6">
+    <row r="55" spans="1:5" ht="306">
       <c r="A55" s="6">
         <v>37796</v>
       </c>
@@ -1692,10 +1692,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1726,16 +1726,16 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="409.6">
+    <row r="58" spans="1:5" ht="356">
       <c r="A58" s="6">
         <v>37880</v>
       </c>
@@ -1743,16 +1743,16 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="409.6">
+    <row r="59" spans="1:5" ht="372">
       <c r="A59" s="6">
         <v>37880</v>
       </c>
@@ -1760,10 +1760,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59">
         <v>-0.25</v>
@@ -1777,16 +1777,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="409.6">
+    <row r="61" spans="1:5" ht="340">
       <c r="A61" s="6">
         <v>37922</v>
       </c>
@@ -1794,16 +1794,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="409.6">
+    <row r="62" spans="1:5" ht="289">
       <c r="A62" s="6">
         <v>37964</v>
       </c>
@@ -1811,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="409.6">
+    <row r="63" spans="1:5" ht="356">
       <c r="A63" s="6">
         <v>37964</v>
       </c>
@@ -1828,16 +1828,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E63">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="409.6">
+    <row r="64" spans="1:5" ht="372">
       <c r="A64" s="6">
         <v>38013</v>
       </c>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="409.6">
+    <row r="65" spans="1:5" ht="356">
       <c r="A65" s="6">
         <v>38013</v>
       </c>
@@ -1862,16 +1862,16 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E65">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="409.6">
+    <row r="66" spans="1:5" ht="272">
       <c r="A66" s="6">
         <v>38013</v>
       </c>
@@ -1879,10 +1879,10 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66">
         <v>0.25</v>

--- a/src/analysis/python/data/bluebook_missingalternatives.xlsx
+++ b/src/analysis/python/data/bluebook_missingalternatives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85723310-1E72-F04B-A7F8-C3BFEA36292E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38751E14-63D2-DA4F-80A8-BFE9A1FB016A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{9716385D-8641-8C45-A762-0D006627BD89}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="80">
   <si>
     <t>The Committee could select a 50 basis point reduction in the funds rate at this meeting if it thought an easing of at least this size would prove necessary to promote a return of economic growth to an acceptable pace over time. The resulting 5 percent federal funds rate would imply a real rate of around 3 percent–assuming that inflation expectatio ns are in line with the staff forecast of core PCE p rices. Even if this places the real rate below its long-run equilibrium value, an undershoot may well be needed for a time to counter the effects of the declines in equity wealth, the apparent downward revision to expected near-term returns on capital, a possible
 7
@@ -343,6 +343,12 @@
       </rPr>
       <t>As a result , the tightening could have substantial effects on asset prices, as market participants move up the timing and perhaps increase the cumulative size of expected policy actions. Interest rates would likely rise, especially so on shorter-term instruments, equity markets sell off, and the dollar appreciate on foreign exchange markets.</t>
     </r>
+  </si>
+  <si>
+    <t>aprime</t>
+  </si>
+  <si>
+    <t>If the Committee thought the economy might well be weaker than in the staff forecast, it may wish to take another substantial easing action by cutting the federal funds rate 50 basis points at this meeting, as in alternative A. As the recession simulation illustrated, a substantial shortfall in demand would require prompt and forceful policy action. Even if the Committee thought the staff forecast was the most reasonable point estimate, it might still favor a 50 basis p oint easing if it perceived that the probabilities around that outcome were skewed toward considerably softer demand than in that forecast. With inflation and inflation expectations likely to remain quiescent for a while, a substantial easing to cushion downside risks to econom ic activity is unlikely to boost materially the risk of greater inflation pressures. Indeed, a substantial easing might also be viewed as appropriate if the Committee did not see outsized downside risks to demand but thought price pressures were unlikely to intensify at an unemployment rate near its current level, as in the 4 percent NAIRU simulation earlier in this bluebook. Financial market participants currently have built in high odds of a 1⁄2 percentage point cut in the funds rate at this meeting. Although conditions in some segments of financial markets have improved in recent weeks, developments in the commercial paper and bank loan markets indicate that suppliers of funds remain quite wary. Under these circumstances, the effects of surprising the markets with a smaller easing could be especially adverse. The market response to a 50 basis point reduction in the federal funds rate would depend importantly on the wording of the announcement and balance of risks statement that accompanied the action. Retaining a statement of risks weighted toward economic weakness would seem appropriate if, in light of the evident softening in demand and subdued readings on price and wage inflation, the Committee saw the possibility of below-tren d growth a s a more serio us problem in the foreseeable future than the chance of a rise in inflation. Market participants expect the Committee to announce continued unbalanced risks toward economic weakness as well as to ease policy by 50 basis points. Still, markets might rally some if participants see this combination as confirming that the Federal Reserve intended to continue to counter economic weakness relatively aggressively. The dollar could weaken on foreign exchange markets as major foreign central banks are unlikely to match the System easing at this time.</t>
   </si>
 </sst>
 </file>
@@ -754,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C35FE6-3980-E94D-9EE2-3C2A0EB4F129}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1888,6 +1894,23 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>36921</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67">
+        <v>-0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
